--- a/VariantSurvival_package/R/disease_gene.xlsx
+++ b/VariantSurvival_package/R/disease_gene.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\My tools\vs\VariantSurvival_package\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\My tools\New folder\VariantSurvival-msarrias\VariantSurvival_package\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C7E28E-0787-4302-92C9-BF32D1FC3B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DB593-94F9-466A-B13E-C3F85EC79A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="2880" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>TOMM40</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>ALS2</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>VCPVEGFA</t>
   </si>
   <si>
-    <t>ALS</t>
-  </si>
-  <si>
     <t>PINK1</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>LRRK2</t>
   </si>
   <si>
-    <t>DLB</t>
-  </si>
-  <si>
     <t>TDP43</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>HNRNPA1</t>
   </si>
   <si>
-    <t>FD</t>
-  </si>
-  <si>
     <t>UCHL1</t>
   </si>
   <si>
@@ -213,7 +201,21 @@
     <t>VPS35</t>
   </si>
   <si>
-    <t>PD</t>
+    <t>Amyotrophic lateral sclerosis</t>
+  </si>
+  <si>
+    <t>Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Dementia with
+Lewy Bodies</t>
+  </si>
+  <si>
+    <t>Frontotemporal
+dementia</t>
   </si>
 </sst>
 </file>
@@ -249,8 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,26 +539,29 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,16 +569,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,16 +603,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,16 +620,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,16 +637,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,16 +654,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,16 +671,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -680,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -691,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,10 +721,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,10 +732,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -735,10 +743,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,10 +754,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,10 +776,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,10 +798,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,17 +814,17 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
